--- a/SuperMarket7r/src/main/java/Resources/TestData.xlsx
+++ b/SuperMarket7r/src/main/java/Resources/TestData.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhila\obsquraJava\SuperMarket7r\src\main\java\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC11D8D-DA9E-49D8-BB36-D5F9DCAA9AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10023F-A361-41A9-98F4-C236251C7561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{03A16C17-BDE5-4D18-8862-41C8633E7FCE}"/>
+    <workbookView xWindow="770" yWindow="1530" windowWidth="16800" windowHeight="9670" firstSheet="4" activeTab="4" xr2:uid="{03A16C17-BDE5-4D18-8862-41C8633E7FCE}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginExcelSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="ExpenseCategory" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageExpenseSheet" sheetId="5" r:id="rId2"/>
+    <sheet name="HomeSheet" sheetId="6" r:id="rId3"/>
+    <sheet name="PushNotificationSheet" sheetId="3" r:id="rId4"/>
+    <sheet name="ManageDeliveryBoy" sheetId="10" r:id="rId5"/>
+    <sheet name="ExpenseCategory" sheetId="2" r:id="rId6"/>
+    <sheet name="ManageLocationSheet" sheetId="4" r:id="rId7"/>
+    <sheet name="SettingsSheet" sheetId="9" r:id="rId8"/>
+    <sheet name="ManageSliderSheet" sheetId="7" r:id="rId9"/>
+    <sheet name="manageSlider" sheetId="12" r:id="rId10"/>
+    <sheet name="ManageCategory" sheetId="13" r:id="rId11"/>
+    <sheet name="ManageUserSheet" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,22 +45,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>haihello</t>
+  </si>
+  <si>
+    <t>admin@</t>
+  </si>
+  <si>
+    <t>titleHai</t>
+  </si>
+  <si>
+    <t>DesHai</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>www.amazon.in</t>
+  </si>
+  <si>
+    <t>List Sliders | 7rmart supermarket</t>
+  </si>
+  <si>
+    <t>Alert!</t>
+  </si>
+  <si>
+    <t>Save failed</t>
+  </si>
+  <si>
+    <t>List Users</t>
+  </si>
+  <si>
+    <t>janakijanani</t>
+  </si>
+  <si>
+    <t>Manage Location</t>
+  </si>
+  <si>
+    <t>Manage Slider</t>
+  </si>
+  <si>
+    <t>Manage Users</t>
+  </si>
+  <si>
+    <t>Mobile Slider</t>
+  </si>
+  <si>
+    <t>rgba(0, 0, 0, 0)</t>
+  </si>
+  <si>
+    <t>Manage Expense</t>
+  </si>
+  <si>
+    <t>Expense Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Save</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/login</t>
+  </si>
+  <si>
+    <t>Lavina</t>
+  </si>
+  <si>
+    <t>momo.jpg</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>adminadmin</t>
+  </si>
+  <si>
+    <t>Grocery &amp; Staples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +175,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,7 +497,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E5ABC6-91AA-4F66-921E-7C0D96C6207E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="admin@" xr:uid="{EB08F112-5C7F-4956-A31D-E19AB978B4D9}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{4BD842D2-D267-4A3C-AFB4-AF32DDC399DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBD1194-6584-4DE4-8FBA-629AE7322792}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -401,27 +541,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-  </cols>
+    <col min="1" max="1" width="51.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2365C0-BE4B-4CD3-BA4E-A4C1CF859C65}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADD59B4-EE59-4551-B2EF-1FFD47F979D3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="24.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291FD03-0CE6-4603-B937-71EAD4533C50}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897AB66-EFD9-4E01-A8C2-7E343183D4E4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7AF75F-24AB-41FB-BC71-A2BF18C7BC4C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE093D5A-0563-4855-8A37-1308F020EE4D}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A167269-C595-4FD4-9334-4BB73D93C334}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -436,4 +795,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89474B1A-FF73-4F81-A30F-4BC90506BB36}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7564244-F2C8-4270-9A20-103DF73D4D35}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{0415E932-EA45-4F77-9E57-5A551BA39A22}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FFE843-CDCD-48F4-B3CB-27951424DC1C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D9EDBE23-9315-4841-8C04-DCB14A2BA3E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>